--- a/une.xlsx
+++ b/une.xlsx
@@ -25,10 +25,10 @@
     <t>url</t>
   </si>
   <si>
-    <t>course name</t>
-  </si>
-  <si>
-    <t>overview</t>
+    <t>course_name</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>Duration</t>
@@ -37,22 +37,22 @@
     <t>Mode</t>
   </si>
   <si>
-    <t>Campus</t>
+    <t>location</t>
   </si>
   <si>
     <t>ATAR</t>
   </si>
   <si>
-    <t>career options</t>
+    <t>careers</t>
   </si>
   <si>
     <t>Entry requirements</t>
   </si>
   <si>
-    <t>international fee</t>
-  </si>
-  <si>
-    <t>domestic fee</t>
+    <t>international_full</t>
+  </si>
+  <si>
+    <t>domestic_full</t>
   </si>
   <si>
     <t>Animals and Agriculture</t>
@@ -3492,8 +3492,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -3511,6 +3511,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3519,8 +3527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3534,25 +3543,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3579,15 +3581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3602,29 +3596,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -3632,11 +3603,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3648,15 +3618,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3671,31 +3672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3713,12 +3696,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3731,19 +3708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3755,13 +3726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3773,19 +3738,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3797,49 +3762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3852,6 +3787,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3880,17 +3881,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3925,6 +3929,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3942,15 +3970,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3959,175 +3978,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4479,12 +4483,15 @@
   <dimension ref="A1:M514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="10" max="10" width="14.328125" customWidth="1"/>
+    <col min="10" max="10" width="17.1875" customWidth="1"/>
+    <col min="11" max="11" width="16.921875" customWidth="1"/>
+    <col min="12" max="12" width="14.9765625" customWidth="1"/>
+    <col min="13" max="13" width="19.015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:13">
@@ -4497,10 +4504,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -4521,10 +4528,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
